--- a/assets/path_upload/upload_event_.xlsx
+++ b/assets/path_upload/upload_event_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
   <si>
     <t>KATEGORI OBJEK</t>
   </si>
@@ -28,9 +28,6 @@
     <t>PANEL LISTRIK</t>
   </si>
   <si>
-    <t>GORONG - GORONG</t>
-  </si>
-  <si>
     <t>TANGKI NITROGEN</t>
   </si>
   <si>
@@ -88,35 +85,41 @@
     <t>APAR</t>
   </si>
   <si>
-    <t>PINTU</t>
-  </si>
-  <si>
-    <t>TIDAK TERKUNCI</t>
-  </si>
-  <si>
-    <t>MATI</t>
-  </si>
-  <si>
-    <t>BOCOR</t>
-  </si>
-  <si>
-    <t>KORSLET</t>
-  </si>
-  <si>
     <t>OFF</t>
   </si>
   <si>
-    <t>MAMPET</t>
-  </si>
-  <si>
-    <t>RUSAK</t>
+    <t>ABNORMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAINNYA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIDAK ADA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIDAK TERKUNCI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIDAK LENGKAP </t>
+  </si>
+  <si>
+    <t>WWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POMPA BANJIR </t>
+  </si>
+  <si>
+    <t>GORONG-GORONG</t>
+  </si>
+  <si>
+    <t>TIDAK ADA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +135,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,25 +193,28 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -494,16 +513,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,191 +538,399 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B48" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B49" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
+      <c r="B50" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
